--- a/Теория вероятностей. Решение задач/6 Точечное и доверительное оценивание/1 Точечные оценки среднего и дисперсии.xlsx
+++ b/Теория вероятностей. Решение задач/6 Точечное и доверительное оценивание/1 Точечные оценки среднего и дисперсии.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\College_Courses\Theory-of-possibilities\Теория вероятностей. Решение задач\6 Точечное и доверительное оценивание\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B0C4AB-9CFB-4780-9887-3F461E18D0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6ABD74B-16C3-45CF-9308-C511B2232069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,26 @@
     <sheet name="Задание 1" sheetId="1" r:id="rId1"/>
     <sheet name="Вопросы" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Случайная выборка, взятая из большой совокупности, содержит следующие данные:</t>
   </si>
@@ -68,9 +77,6 @@
   </si>
   <si>
     <t>Интевральные</t>
-  </si>
-  <si>
-    <t>Cтандартное отклонение (σ или s)</t>
   </si>
   <si>
     <r>
@@ -132,17 +138,50 @@
     <t>Несмещенная оценка ищется для математического ожидания?</t>
   </si>
   <si>
-    <t>Ведь μ не обозначает математическое ожидание?</t>
-  </si>
-  <si>
-    <t>Каким символом обозначается?</t>
+    <t>В статье сказано, что для оценки μ можно использовать лишь выборочное среднее x¯</t>
+  </si>
+  <si>
+    <t>Поэтому я найду x¯ для имеющихся у меня данных</t>
+  </si>
+  <si>
+    <t>x¯</t>
+  </si>
+  <si>
+    <t>Выборочное среднее = x¯ = ср. ар. Всех эл. Набора</t>
+  </si>
+  <si>
+    <t>Ожидаемое значение выборочного среднего является средним значением генеральной совокупности.</t>
+  </si>
+  <si>
+    <t>ВЫПОЛНИЛ!</t>
+  </si>
+  <si>
+    <t>σ² =</t>
+  </si>
+  <si>
+    <t>Дисперсия генеральной совокупности</t>
+  </si>
+  <si>
+    <t>В статье сказано, что для s² является смещённой оценкой σ²</t>
+  </si>
+  <si>
+    <t>s² имеет тенденцию недооценивать σ².</t>
+  </si>
+  <si>
+    <t>Но с помощью этой формулы проблема решается</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s² = </t>
+  </si>
+  <si>
+    <t>Этой формуле соответствует формула ДИСП.В от EXCEL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,13 +209,26 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -191,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -204,6 +256,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -219,6 +274,238 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>25287</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>117661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82B40AB6-B503-44D1-A010-FBC4EFE1801A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13256559" y="918882"/>
+          <a:ext cx="2916404" cy="2190750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>985535</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>414618</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>72278</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E7942C2-A194-4BD9-9006-6A89556743DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10051094" y="1523999"/>
+          <a:ext cx="2880495" cy="2257426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3" descr="c4935908-4da5-4c3a-84e3-b9b3869eed73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D9B5B43-E8A1-475E-8446-E5853BB77D05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3629025" y="6229350"/>
+          <a:ext cx="1533525" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1151752</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>190318</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71FABAD5-A01D-472D-959E-3577921EA395}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4086225" y="6943725"/>
+          <a:ext cx="6180952" cy="1457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -484,31 +771,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.28515625" customWidth="1"/>
+    <col min="12" max="12" width="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -516,7 +805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75">
+    <row r="5" spans="1:13" ht="15.75">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -524,7 +813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="B6" s="2">
         <v>19.3</v>
       </c>
@@ -543,84 +832,238 @@
       <c r="L6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="L8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="30">
+    </row>
+    <row r="9" spans="1:13" ht="30">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
+    <row r="10" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13" ht="14.25" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75">
-      <c r="A13" s="4" t="s">
+    <row r="12" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2">
+        <f>SUM(B6:F6)/COUNT(B6:F6)</f>
+        <v>17.020000000000003</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75">
+      <c r="A22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="2" t="s">
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
+      <c r="B24" s="8">
+        <f>D14</f>
+        <v>17.020000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3"/>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75">
+      <c r="A29" s="3"/>
+      <c r="C29" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75">
+      <c r="A30" s="3"/>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3"/>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75">
+      <c r="A32" s="3"/>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75">
+      <c r="A33" s="3"/>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75">
+      <c r="A34" s="3"/>
+      <c r="C34" s="7"/>
+      <c r="F34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75">
+      <c r="A35" s="3"/>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75">
+      <c r="A36" s="3"/>
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75">
+      <c r="A37" s="3"/>
+      <c r="C37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75">
+      <c r="A38" s="3"/>
+      <c r="C38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75">
+      <c r="A39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39">
+        <f>_xlfn.VAR.S(B6:F6)</f>
+        <v>3.9669999999999277</v>
+      </c>
+      <c r="C39" s="7"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="8">
+        <f>_xlfn.VAR.S(B6:F6)</f>
+        <v>3.9669999999999277</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{1367D96D-70B8-4B2A-9940-11A16826423E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -628,9 +1071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D751A8FC-8CA2-4B92-9D09-13D7A55DEDD7}">
   <dimension ref="A2:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -639,32 +1080,32 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
